--- a/pred_ohlcv/54_21/2019-11-24 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-24 BSV ohlcv.xlsx
@@ -4552,7 +4552,7 @@
         <v>-822.2289247899998</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-690.9790247899999</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-690.9790247899999</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-359.3137247899999</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-408.4866562299999</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-429.4428562299999</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-603.74743604</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1222.16678177</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1290.40838177</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1106.58408177</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1106.12808177</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1088.55088177</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1094.85628177</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1086.43918177</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1188.47408177</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-156.0362885900007</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-54.27298859000069</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>315.2251103299994</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>228.1285103299994</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>323.8712103299994</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>323.8712103299994</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>314.8186103299994</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>265.3704103299994</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>271.6545103299994</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>263.9406103299994</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>277.5219103299994</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>263.8423103299994</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>248.5362103299994</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>267.4183103299994</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>259.4507103299994</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>384.7101103299993</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>330.9729103299993</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>326.0519103299993</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>326.0519103299993</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>305.9866103299993</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>315.9898103299993</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>316.3618103299993</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>350.6623103299993</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>306.8690103299994</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>306.8690103299994</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>497.9477821099994</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>798.787316599999</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>798.450516599999</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>801.289116599999</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>797.752516599999</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>797.752516599999</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>743.752116599999</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>669.503016599999</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>709.956416599999</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>710.659116599999</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>710.659116599999</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>710.659116599999</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>681.614716599999</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>681.884716599999</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>680.930616599999</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>669.977516599999</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>669.977516599999</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>669.977516599999</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>713.815916599999</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>713.815916599999</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>714.495916599999</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>714.195916599999</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>714.595916599999</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>692.257416599999</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>692.257416599999</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>699.069416599999</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>690.919116599999</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>691.3691165999991</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>641.5655165999991</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>641.8555165999991</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>641.8426165999991</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>641.8726165999991</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>641.8726165999991</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>641.2367347099992</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>641.0536347099992</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>563.2338347099992</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>563.2338347099992</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>563.2338347099992</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>566.5838347099992</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>565.0837347099992</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>565.0837347099992</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>565.0837347099992</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>582.7967347099992</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>605.7258347099992</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>594.2907347099991</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>570.2627347099991</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>572.4054347099991</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>498.0456347099991</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>845.705034709999</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>867.2466347099991</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>905.027942429999</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>869.124542429999</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>846.231042429999</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>789.018642429999</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-24 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-24 BSV ohlcv.xlsx
@@ -5358,7 +5358,7 @@
         <v>-359.3137247899999</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-408.4866562299999</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-429.4428562299999</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-723.7357732199999</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-603.74743604</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1222.16678177</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1290.40838177</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1106.58408177</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-1106.12808177</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-1088.55088177</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-1094.85628177</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-1086.43918177</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-1188.47408177</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-112.3475038900007</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-156.0362885900007</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-54.27298859000069</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>216.6709103299994</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>315.2251103299994</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>228.1285103299994</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>323.8712103299994</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>323.8712103299994</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>314.8186103299994</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>265.3704103299994</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>271.6545103299994</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>263.9406103299994</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>277.5219103299994</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>263.8423103299994</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>248.5362103299994</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>267.4183103299994</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>259.4507103299994</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>384.7101103299993</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>330.9729103299993</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>326.0519103299993</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>326.0519103299993</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>305.9866103299993</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>315.9898103299993</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>316.3618103299993</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>350.6623103299993</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>306.8690103299994</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>306.8690103299994</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>533.7005168299994</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>540.3043168299994</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>466.1134168299994</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>434.9855068999994</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>422.8504068999994</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>432.8496821099994</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>429.6184821099994</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>429.6162821099994</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>429.6162821099994</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>429.6162821099994</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>422.6271821099994</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>422.6271821099994</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>485.4814821099993</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>497.8724821099993</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>511.3588821099993</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>509.8002821099993</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>532.8750821099993</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>526.7503821099994</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>556.5376821099993</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>558.3305821099993</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>553.3451821099993</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>553.3451821099993</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>556.5623821099994</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>557.5622821099994</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>559.2956821099993</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>559.6156821099994</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>525.5765821099994</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>529.0451821099995</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>523.8794821099995</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>523.8794821099995</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>523.8375821099994</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>526.4187821099994</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>497.9477821099994</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>518.0091821099994</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>522.5741821099995</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>518.6201821099995</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>518.2624821099995</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>519.4932821099995</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>519.4932821099995</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>519.4932821099995</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>519.4932821099995</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>519.4285821099995</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>533.1686821099995</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>526.8613821099995</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>527.1913821099995</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>522.1968821099995</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>522.1968821099995</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>473.5731821099995</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>702.6266821099995</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>808.0837352399993</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>666.447635239999</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>666.5276352399991</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>666.8676352399991</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>666.8676352399991</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>668.3338352399991</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>687.633835239999</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>702.1962352399991</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>702.1962352399991</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>734.1956352399991</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>734.1956352399991</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>805.962516599999</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>794.6190165999991</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>794.6336165999991</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>793.787316599999</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>798.787316599999</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>798.450516599999</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>801.289116599999</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>797.752516599999</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>797.752516599999</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>743.752116599999</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>669.503016599999</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>709.956416599999</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>710.659116599999</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>710.659116599999</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>710.659116599999</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>681.614716599999</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>681.884716599999</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>680.930616599999</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>669.977516599999</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>669.977516599999</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>669.977516599999</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>713.815916599999</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>713.815916599999</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>714.495916599999</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>714.195916599999</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>714.595916599999</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>692.257416599999</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>692.257416599999</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>699.069416599999</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>690.919116599999</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>691.3691165999991</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>641.5655165999991</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>641.8555165999991</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>641.8426165999991</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>641.8726165999991</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>641.8726165999991</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>641.2367347099992</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>641.0536347099992</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>563.2338347099992</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>563.2338347099992</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>563.2338347099992</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>566.5838347099992</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>565.0837347099992</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>565.0837347099992</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>565.0837347099992</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>582.7967347099992</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>605.7258347099992</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>594.2907347099991</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>570.2627347099991</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>570.6727347099991</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>570.6727347099991</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>549.7436347099991</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>572.4054347099991</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>572.4054347099991</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>498.0456347099991</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>845.9874347099991</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>845.705034709999</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>867.2466347099991</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>905.027942429999</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>869.124542429999</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>846.231042429999</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>789.018642429999</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>787.5224424299989</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>747.0778424299989</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>651.4636424299989</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>651.7436424299989</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>651.4758424299989</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>671.9586424299989</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>621.1082424299989</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>631.3492424299989</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
